--- a/mpl/data.xlsx
+++ b/mpl/data.xlsx
@@ -94,8 +94,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -115,180 +115,183 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>0.003410641</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>6.98</v>
+        <v>2.9</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>0.003400667</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>7.14</v>
+        <v>3.3</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">B1</f>
+        <v>2.9</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">B2</f>
+        <v>3.3</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">B3</f>
+        <v>3.7</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>0.003388797</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>7.26</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>0.003377466</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>7.36</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>0.003366097</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>7.46</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>0.003354804</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>7.56</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>0.003343587</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>7.68</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>0.003332556</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>7.76</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>0.003321487</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>7.86</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>0.003310381</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>7.94</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>0.003300221</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>0.003288933</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>8.09</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>0.003278151</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>0.00326744</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>8.23</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>0.003256905</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>8.3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>0.003246332</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>8.37</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>0.003235618</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>8.46</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>0.00322539</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>8.52</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>0.003214917</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>8.58</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>0.003204717</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>0.00319448</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>8.71</v>
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -296,8 +299,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>